--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_4_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-990748.9817853429</v>
+        <v>-841759.72611894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632947</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809162</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10586991.74225521</v>
+        <v>10666967.38232148</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>115.9623695894509</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>24.76484596498756</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>134.0706583271193</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>292.9082206543426</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>292.9082206543426</v>
+        <v>293.400994488216</v>
       </c>
       <c r="F5" t="n">
-        <v>292.9082206543426</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -947,10 +947,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>110.7779963362548</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1035,13 +1035,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.11563301763965</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>74.11873955714525</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.050143030109</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>244.7753122085561</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>120.057523490882</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>143.2339338136094</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1357,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.04459329792188</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>88.12625806200039</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095504</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1368198100089</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>102.1026425880276</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>88.12625806200022</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>108.8435335112082</v>
+        <v>98.26334559068147</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>29.94109061193906</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36157859846156</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>56.4512625420967</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>125.1813031257407</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>100.2743011658318</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686466</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.8550050462799</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>98.15366458399345</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686415</v>
+        <v>96.44420510686466</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686415</v>
+        <v>96.44420510686406</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295135</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523053</v>
+        <v>178.1668213893226</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542508</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475628</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>108.1577655104192</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448714</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705894</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704341</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607366</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790764</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.796865082429</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535897</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530305</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.981852991533</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>67.64901981295137</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U35" t="n">
         <v>220.0967589369122</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D37" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160356</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705896</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T37" t="n">
         <v>205.2313529237194</v>
@@ -3481,7 +3481,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
@@ -3490,7 +3490,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>67.64901981295137</v>
       </c>
       <c r="T38" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U38" t="n">
         <v>220.0967589369122</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,19 +3667,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H40" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705896</v>
       </c>
       <c r="S40" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T40" t="n">
         <v>205.2313529237194</v>
@@ -3718,7 +3718,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W40" t="n">
         <v>236.4292784165725</v>
@@ -3727,7 +3727,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>958.6872452593977</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>935.8269193131019</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>916.5747025385062</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>799.4409958824953</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>374.3168140718955</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>374.0181557017481</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>76.14977717578296</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925416</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>403.8563647361497</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>403.8563647361497</v>
       </c>
       <c r="L2" t="n">
-        <v>30.08445184211706</v>
+        <v>585.5503949569845</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707755</v>
       </c>
       <c r="N2" t="n">
-        <v>85.75474590510004</v>
+        <v>1096.055105707755</v>
       </c>
       <c r="O2" t="n">
-        <v>112.4652405312787</v>
+        <v>1096.055105707755</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1606.559816458525</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962708</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962708</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835848</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880482</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880482</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1379.863016006731</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>983.4716663070781</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>975.7920715152294</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>974.4952055105238</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>387.0305349834992</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66461400032987</v>
+        <v>282.3286012564364</v>
       </c>
       <c r="F3" t="n">
-        <v>55.66461400032987</v>
+        <v>188.6827709393406</v>
       </c>
       <c r="G3" t="n">
-        <v>27.26430073485544</v>
+        <v>94.62899915694457</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925416</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>48.699548881166</v>
       </c>
       <c r="J3" t="n">
-        <v>30.08445184211706</v>
+        <v>48.699548881166</v>
       </c>
       <c r="K3" t="n">
-        <v>30.08445184211706</v>
+        <v>48.699548881166</v>
       </c>
       <c r="L3" t="n">
-        <v>30.08445184211706</v>
+        <v>48.699548881166</v>
       </c>
       <c r="M3" t="n">
-        <v>57.91959887360855</v>
+        <v>559.2042596319362</v>
       </c>
       <c r="N3" t="n">
-        <v>57.91959887360855</v>
+        <v>559.2042596319362</v>
       </c>
       <c r="O3" t="n">
-        <v>57.91959887360855</v>
+        <v>793.2710388015112</v>
       </c>
       <c r="P3" t="n">
-        <v>85.75474590510004</v>
+        <v>1303.775749552281</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.75474590510004</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>112.4652405312787</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>112.4652405312787</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.4652405312787</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>276.4463815801088</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0649272658043</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="D4" t="n">
-        <v>84.0649272658043</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="E4" t="n">
-        <v>55.66461400032987</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925416</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925416</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>267.7805071250913</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>622.4698284195122</v>
       </c>
       <c r="M4" t="n">
-        <v>28.95979943680427</v>
+        <v>1013.655623389763</v>
       </c>
       <c r="N4" t="n">
-        <v>28.95979943680427</v>
+        <v>1391.147134265799</v>
       </c>
       <c r="O4" t="n">
-        <v>56.79494646829576</v>
+        <v>1746.575262945562</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>2037.174474867463</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962708</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649881</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649881</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>1772.267334875781</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1492.082886376086</v>
       </c>
       <c r="V4" t="n">
-        <v>84.0649272658043</v>
+        <v>1210.371418984114</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0649272658043</v>
+        <v>935.5190151566273</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>692.9551186024324</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>466.6123502921745</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.5842014466136</v>
+        <v>808.398248848074</v>
       </c>
       <c r="C5" t="n">
-        <v>634.7173118967726</v>
+        <v>381.4975188613741</v>
       </c>
       <c r="D5" t="n">
-        <v>615.4650951221769</v>
+        <v>362.2453020867785</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5982055723358</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>23.73131602249472</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>23.43265765234741</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>23.43265765234741</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234741</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>313.4117961001466</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>313.4117961001466</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>313.4117961001466</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>313.4117961001466</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>603.3909345479458</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>603.3909345479458</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>764.0974092876688</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.076547735468</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617371</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1067.265588490511</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1067.265588490511</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>955.368622494294</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>955.368622494294</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>955.368622494294</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>947.6890277024453</v>
+        <v>1633.583883184714</v>
       </c>
       <c r="Y5" t="n">
-        <v>946.3921616977397</v>
+        <v>1228.246613139604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>537.1800554461122</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>419.674151963617</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>315.834193478902</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>211.1322597518393</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>117.4864294347434</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>23.43265765234741</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234741</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234741</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>23.43265765234741</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>219.6761571892698</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>219.6761571892698</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M6" t="n">
-        <v>219.6761571892698</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>219.6761571892698</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>509.655295637069</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>799.6344340848682</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532667</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617371</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.308635178625</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1090.308635178625</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>905.5404390982618</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>700.5673002375281</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>700.5673002375281</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>700.5673002375281</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>666.1070648661749</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>427.8738139254307</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>353.0064002313446</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>189.6896273581153</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>189.6896273581153</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6896273581153</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234741</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234741</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234741</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234741</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.43265765234741</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>313.4117961001466</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>313.4117961001466</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>603.3909345479458</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>893.370072995745</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1171.632882617371</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617371</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.632882617371</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.632882617371</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1171.632882617371</v>
+        <v>1765.26269971908</v>
       </c>
       <c r="U7" t="n">
-        <v>1171.632882617371</v>
+        <v>1485.078251219384</v>
       </c>
       <c r="V7" t="n">
-        <v>1171.632882617371</v>
+        <v>1485.078251219384</v>
       </c>
       <c r="W7" t="n">
-        <v>896.7804787898835</v>
+        <v>1210.225847391897</v>
       </c>
       <c r="X7" t="n">
-        <v>654.2165822356886</v>
+        <v>1210.225847391897</v>
       </c>
       <c r="Y7" t="n">
-        <v>427.8738139254307</v>
+        <v>983.8830790816388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1562.460292590069</v>
+        <v>1270.775797585522</v>
       </c>
       <c r="C8" t="n">
-        <v>1539.599966643773</v>
+        <v>843.8750675988226</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.35217653412</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E8" t="n">
-        <v>866.3752366819779</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1769.873171385915</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1845.599623041337</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X8" t="n">
-        <v>1579.5651188459</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1578.268252841195</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1222.18129514588</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1678.967201848611</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1678.967201848611</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1678.967201848611</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.967201848611</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.4768292123964</v>
+        <v>864.5940064405311</v>
       </c>
       <c r="C10" t="n">
-        <v>280.4768292123964</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D10" t="n">
-        <v>280.4768292123964</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>280.4768292123964</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>2080.230511236507</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>2080.230511236507</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1798.519043844537</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>1523.66664001705</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>1281.102743462855</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.4768292123964</v>
+        <v>1054.759975152597</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.438990741572</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1712.435132011401</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1324.03938245293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>932.9593138573159</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>542.7320033032447</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>173.2898121492212</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437228</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>446.8768486812678</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3096.296305695102</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3505.390214060686</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>3505.390214060686</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4213.669493218614</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4213.669493218614</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218614</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348283</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4144.199070348283</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3920.741032201224</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3598.148488584002</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3236.654010140878</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2859.830882565154</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2489.390483776573</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437228</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>355.9708791439634</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9708791439634</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>355.9708791439634</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>355.9708791439634</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>355.9708791439634</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5985164589015</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709858</v>
+        <v>440.4214573370358</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064306</v>
+        <v>440.4214573370358</v>
       </c>
       <c r="D13" t="n">
-        <v>630.5480913897301</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E13" t="n">
-        <v>526.3694855210342</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521234</v>
+        <v>268.5596831115963</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145057</v>
+        <v>2179.581758406808</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627486</v>
+        <v>1936.242410632708</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>1656.057962133013</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1374.346494741041</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677919</v>
+        <v>1099.494090913554</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380252</v>
+        <v>856.9301943593595</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326523</v>
+        <v>630.5874260491014</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.438990741572</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1712.435132011401</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1324.03938245293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>932.9593138573159</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>542.7320033032447</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>173.289812149221</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437228</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>1013.898437483649</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.184538902707</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.435597389408</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.58024754022</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P14" t="n">
-        <v>4213.669493218614</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218614</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218614</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348283</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4144.199070348283</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3920.741032201224</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3598.148488584002</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3236.654010140878</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2859.830882565154</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2489.390483776573</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020627</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437228</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>84.27338986437228</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>84.27338986437228</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.0436848709865</v>
+        <v>373.4203922683192</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283523</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116517</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>526.369485521034</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521232</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.425704677919</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1242.758679380252</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.312782326523</v>
+        <v>563.5863609803848</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.01068275409</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>746.9306141584767</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437228</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>441.4703939290125</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1156.978701904512</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2086.603749523788</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2086.603749523788</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
-        <v>2086.603749523788</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>2931.7483996746</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>3640.027678832528</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4096.113158336711</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218614</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502385</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885164</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442039</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.361784077734</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020627</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>91.72003282628411</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>509.9974254144934</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L18" t="n">
-        <v>1346.796233497399</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M18" t="n">
-        <v>1346.796233497399</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.796233497399</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709865</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064312</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="D19" t="n">
-        <v>630.5480913897308</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E19" t="n">
-        <v>499.2367567991131</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>362.2718538302023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>230.9117553809632</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0123581456464</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>2008.520602710016</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1726.809135318045</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677919</v>
+        <v>1451.956731490558</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380252</v>
+        <v>1209.392834936363</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326523</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015.422568456721</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>1623.41870972655</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1235.022960168079</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>843.9428915724658</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>453.7155810183949</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>84.27338986437228</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437228</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812678</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2542.689229027972</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>2542.689229027972</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3387.833879178784</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4096.113158336711</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4096.113158336711</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218614</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>3831.724609916373</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3509.132066299151</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3147.637587856027</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2770.814460280303</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2400.374061491722</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020627</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437228</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>84.27338986437228</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>84.27338986437228</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>921.0721979472784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1637.269914985776</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.0436848709867</v>
+        <v>446.1370507523519</v>
       </c>
       <c r="C22" t="n">
-        <v>758.9679930064315</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D22" t="n">
-        <v>657.6808201116519</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3694855210342</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437228</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145058</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627487</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248877</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677919</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380253</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.312782326524</v>
+        <v>636.3030194644175</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.740683576841</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692585</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385137</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844908</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2453.934142057894</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057894</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366634</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976145</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611842</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696623</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>370.7641299565573</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>961.2490565248969</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>961.2490565248969</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M24" t="n">
-        <v>961.2490565248969</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N24" t="n">
-        <v>961.2490565248969</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O24" t="n">
-        <v>961.2490565248969</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P24" t="n">
-        <v>1354.142841348082</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1818.288318210861</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>930.5230214435896</v>
+        <v>373.4203922683195</v>
       </c>
       <c r="C25" t="n">
-        <v>793.4473295790345</v>
+        <v>201.4478291472354</v>
       </c>
       <c r="D25" t="n">
-        <v>665.0274279623341</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717164</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028056</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535666</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235002</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177206</v>
+        <v>563.5863609803851</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,43 +6212,43 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
         <v>5010.768376164568</v>
@@ -6260,13 +6260,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523523</v>
+        <v>446.1370507523519</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312682</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6382,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,10 +6409,10 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822125</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048025</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
         <v>1661.773555548329</v>
@@ -6421,13 +6421,13 @@
         <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.209684328871</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746759</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.303019464418</v>
+        <v>636.3030194644175</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,19 +6449,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6470,28 +6470,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.856391133498</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6531,7 +6531,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
         <v>102.3027134058285</v>
@@ -6540,28 +6540,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878698</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6607,22 +6607,22 @@
         <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>806.8031400834319</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>806.8031400834319</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M32" t="n">
-        <v>1811.08924150249</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.340299989191</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3632.484950140003</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4108.65612589246</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>1797.722699000682</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1797.722699000682</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1797.722699000682</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.722699000682</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1797.722699000682</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619898</v>
+        <v>534.9883540242455</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223601</v>
+        <v>373.2152733633861</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305852</v>
+        <v>373.2152733633861</v>
       </c>
       <c r="E34" t="n">
-        <v>528.838609264893</v>
+        <v>373.2152733633861</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209076</v>
+        <v>211.5529815981712</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965941</v>
+        <v>211.5529815981712</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892527</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557544</v>
+        <v>406.3146683543561</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090882</v>
+        <v>771.0005024080428</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.18281013756</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.670833772862</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511877</v>
+        <v>1925.095475211891</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792691</v>
+        <v>2225.691199893058</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392366</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2202.752277872446</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468937</v>
+        <v>1969.61241255857</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1699.627446519099</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1428.115461587353</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1163.46254022009</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721405</v>
+        <v>931.09812612612</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292601</v>
+        <v>714.9548402760865</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D35" t="n">
         <v>1500.463591181375</v>
@@ -6935,22 +6935,22 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
-        <v>235.79293333471</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>235.79293333471</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>1165.417980953987</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>2169.704082373045</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N35" t="n">
-        <v>3145.955140859746</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O35" t="n">
-        <v>3991.099791010558</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P35" t="n">
         <v>3991.099791010558</v>
@@ -6965,10 +6965,10 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
         <v>3767.744219562896</v>
@@ -6980,7 +6980,7 @@
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D37" t="n">
         <v>659.0118642305856</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F37" t="n">
         <v>393.0117859209079</v>
@@ -7087,7 +7087,7 @@
         <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I37" t="n">
         <v>91.29483210793288</v>
@@ -7132,7 +7132,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7157,19 +7157,19 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815408</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7178,34 +7178,34 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>1461.424803215117</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
@@ -7214,7 +7214,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7245,34 +7245,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J39" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>810.6675162155727</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="L39" t="n">
-        <v>810.6675162155727</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="M39" t="n">
-        <v>810.6675162155727</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="N39" t="n">
-        <v>1899.982462688443</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="O39" t="n">
-        <v>1899.982462688443</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P39" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q39" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223604</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305853</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G40" t="n">
         <v>262.7897670965942</v>
@@ -7327,16 +7327,16 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910041</v>
+        <v>184.104015691004</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557544</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7421,16 +7421,16 @@
         <v>2099.031646519604</v>
       </c>
       <c r="N41" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O41" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396644</v>
@@ -7454,7 +7454,7 @@
         <v>3031.702772793898</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J42" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K42" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L42" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M42" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N42" t="n">
-        <v>1899.982462688443</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P42" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q42" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
@@ -7567,13 +7567,13 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238253</v>
@@ -7591,10 +7591,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
@@ -7603,7 +7603,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
         <v>1473.199079394147</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7634,16 +7634,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7655,40 +7655,40 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>2437.675861701818</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y44" t="n">
         <v>2662.400453630242</v>
@@ -7719,34 +7719,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J45" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="N45" t="n">
-        <v>1817.963152603739</v>
+        <v>294.303467638473</v>
       </c>
       <c r="O45" t="n">
-        <v>1817.963152603739</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7798,10 +7798,10 @@
         <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910041</v>
@@ -7810,28 +7810,28 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090884</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238252</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
       </c>
       <c r="P46" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q46" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>221.8413658880117</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>553.0925868901088</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>553.2366858009084</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,22 +8064,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>538.758104503005</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>259.6029797924999</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>537.4321651955057</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>50.65321699634485</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>49.55573749368652</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>50.3476648811944</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>322.3281801399291</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,16 +8225,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>330.1878434887886</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>199.905134274598</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589407</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,31 +8292,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>220.6249909413358</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263934</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>316.0801103765648</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591713</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433211</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500439</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.657121629943</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527671</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>303.4543457303355</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,25 +8453,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,28 +8529,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.0626152513283</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8626,10 +8626,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,22 +8696,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>450.5057929006924</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,19 +8778,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>71.42110271777969</v>
       </c>
       <c r="O12" t="n">
-        <v>300.5735435756951</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>415.4432867379016</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9000,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9021,7 +9021,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>451.7951195382844</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>390.2250140963342</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9170,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
@@ -9243,10 +9243,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>170.4597422258769</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9255,7 +9255,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9407,7 +9407,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>492.6626010326924</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
@@ -9419,7 +9419,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9495,10 +9495,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.1730942227185</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>395.5901820218244</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9714,7 +9714,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
@@ -9732,7 +9732,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>418.6332501171365</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,22 +9881,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
-        <v>356.8654072451545</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,19 +10200,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>749.8109645784242</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10364,13 +10364,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>518.556347418774</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10443,10 +10443,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.19194091832987</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.3776374924321</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10826,13 +10826,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>332.3991460456841</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10902,7 +10902,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>467.0745387486232</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,19 +10911,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>498.0882592628462</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11081,7 +11081,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,19 +11148,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>969.8870401031046</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>379.4961267198499</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,19 +11385,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>887.0392521387579</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>172.2155341347416</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>26.86140143470259</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>66.3310544180337</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>172.2155341347418</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>26.86140143470152</v>
+        <v>71.98949189919168</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>356.3839468365912</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86140143470186</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>220.9313414726021</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>96.04215463984758</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>26.8614014347017</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919183</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.86140143470158</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.98949189919173</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.98949189919234</v>
+        <v>71.98949189919183</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919234</v>
+        <v>71.98949189919243</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088746</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530526</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730878</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.10305266088559</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407622</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>893777.5783748786</v>
+        <v>921051.6269132523</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>909085.2254687855</v>
+        <v>922715.7216639087</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>918825.7468041249</v>
+        <v>922715.7216639087</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894141.7584633807</v>
+        <v>914360.8183765432</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894141.7584633809</v>
+        <v>914360.8183765433</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894141.758463381</v>
+        <v>914360.8183765433</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894141.7584633812</v>
+        <v>914360.8183765433</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940297.6208467232</v>
+        <v>914360.8183765433</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941152.6394590295</v>
+        <v>923171.616282518</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131049.6003025117</v>
+        <v>131049.6003025118</v>
       </c>
       <c r="C2" t="n">
         <v>131049.6003025118</v>
@@ -26320,37 +26320,37 @@
         <v>131049.6003025117</v>
       </c>
       <c r="E2" t="n">
-        <v>124521.7122469208</v>
+        <v>126456.8407059256</v>
       </c>
       <c r="F2" t="n">
-        <v>124521.7122469209</v>
+        <v>126456.8407059256</v>
       </c>
       <c r="G2" t="n">
-        <v>124521.7122469209</v>
+        <v>126456.8407059256</v>
       </c>
       <c r="H2" t="n">
-        <v>124521.7122469209</v>
+        <v>126456.8407059256</v>
       </c>
       <c r="I2" t="n">
-        <v>130904.5487347642</v>
+        <v>126456.8407059256</v>
       </c>
       <c r="J2" t="n">
-        <v>126456.8407059257</v>
+        <v>126456.8407059256</v>
       </c>
       <c r="K2" t="n">
         <v>126456.8407059257</v>
       </c>
       <c r="L2" t="n">
-        <v>131049.6003025116</v>
+        <v>127756.7944953316</v>
       </c>
       <c r="M2" t="n">
-        <v>131049.6003025116</v>
+        <v>131049.6003025117</v>
       </c>
       <c r="N2" t="n">
         <v>131049.6003025116</v>
       </c>
       <c r="O2" t="n">
-        <v>131049.6003025116</v>
+        <v>131049.6003025117</v>
       </c>
       <c r="P2" t="n">
         <v>131049.6003025116</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797277</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943904</v>
+        <v>13105.84347019851</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447416</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596186</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826551</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085283</v>
+        <v>134919.6914542167</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710326</v>
+        <v>10440.51617310166</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370091</v>
+        <v>8077.99010849789</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819145</v>
+        <v>166235.4618077715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306508.7100712666</v>
+        <v>181618.4387619009</v>
       </c>
       <c r="C4" t="n">
-        <v>236413.6453075502</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>85767.01194713601</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="F4" t="n">
-        <v>85767.01194713602</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>85767.01194713602</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>85767.01194713601</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
-        <v>88704.84325013729</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
+        <v>61387.09049761986</v>
+      </c>
+      <c r="M4" t="n">
+        <v>89662.20424840874</v>
+      </c>
+      <c r="N4" t="n">
+        <v>89662.20424840873</v>
+      </c>
+      <c r="O4" t="n">
         <v>89662.20424840876</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>89662.20424840876</v>
-      </c>
-      <c r="N4" t="n">
-        <v>89662.20424840874</v>
-      </c>
-      <c r="O4" t="n">
-        <v>89662.20424840873</v>
-      </c>
-      <c r="P4" t="n">
-        <v>89662.20424840874</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863316</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578403</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589139</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589139</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589139</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589139</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646882</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-220218.6036254712</v>
+        <v>-288358.61683775</v>
       </c>
       <c r="C6" t="n">
-        <v>-242346.9690002615</v>
+        <v>-123500.8964842927</v>
       </c>
       <c r="D6" t="n">
-        <v>-174780.6260108376</v>
+        <v>-110395.0530140943</v>
       </c>
       <c r="E6" t="n">
-        <v>-232599.1970757252</v>
+        <v>-225148.1225532084</v>
       </c>
       <c r="F6" t="n">
-        <v>-28197.48361610656</v>
+        <v>-9408.765996567963</v>
       </c>
       <c r="G6" t="n">
-        <v>-28197.48361610656</v>
+        <v>-9408.765996567963</v>
       </c>
       <c r="H6" t="n">
-        <v>-28197.48361610646</v>
+        <v>-9408.765996567992</v>
       </c>
       <c r="I6" t="n">
-        <v>-54756.11672604841</v>
+        <v>-9408.765996567978</v>
       </c>
       <c r="J6" t="n">
-        <v>-51652.55498523641</v>
+        <v>-144328.4574507847</v>
       </c>
       <c r="K6" t="n">
-        <v>-77506.69976148687</v>
+        <v>-19849.28216966963</v>
       </c>
       <c r="L6" t="n">
-        <v>-67354.26851442347</v>
+        <v>-20343.82071844586</v>
       </c>
       <c r="M6" t="n">
-        <v>-178528.9253926371</v>
+        <v>-197231.266218494</v>
       </c>
       <c r="N6" t="n">
-        <v>-30995.80441072254</v>
+        <v>-30995.80441072251</v>
       </c>
       <c r="O6" t="n">
-        <v>-30995.80441072253</v>
+        <v>-30995.8044107225</v>
       </c>
       <c r="P6" t="n">
         <v>-30995.80441072253</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O2" t="n">
         <v>35.67460137263964</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990677</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543426</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701726</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990677</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215229</v>
+        <v>40.5664891249171</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059916</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443193</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352652</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674964</v>
+        <v>515.661323990677</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215227</v>
+        <v>40.5664891249171</v>
       </c>
       <c r="L4" t="n">
-        <v>30.8931688822961</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443193</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990677</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215229</v>
+        <v>40.5664891249171</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059916</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443193</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>305.7548008641701</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.07748634032594</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>36.18217916275381</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>136.4298136558553</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>145.3783105181976</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>129.7235020324902</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>128.8089497992784</v>
+        <v>128.316175965405</v>
       </c>
       <c r="F5" t="n">
-        <v>127.9647193381511</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>144.993363973297</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.1803267426009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>96.1340979327279</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0.8558112662499866</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>174.2843823982936</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>272.3699127117746</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>97.67202048274956</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.0347473292335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>-2.524427127321788e-12</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562236</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263924</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="41">
@@ -30882,7 +30882,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263924</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M46" t="n">
         <v>35.67460137263964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>183.5293234553887</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990677</v>
       </c>
       <c r="N2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>515.661323990677</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,22 +34784,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>236.4310900702777</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990677</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>26.98029760220071</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>26.98029760220071</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>25.72810211640945</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>292.9082206543426</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>292.9082206543426</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>162.3297724643667</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543426</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>198.2257571080024</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>292.9082206543426</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543426</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9082206543426</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543426</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543426</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543426</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>281.0735450723491</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.3155769623498</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35346,10 +35346,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>413.2261700662464</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="O12" t="n">
-        <v>277.4016538534729</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>377.8679249276703</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>430.0242783334557</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>360.8050546107477</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35890,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>148.0605083925436</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>455.2313381332606</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.42605593374</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>358.1589191223925</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36434,7 +36434,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>396.8624089123078</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,22 +36601,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
-        <v>319.4744478891304</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>726.639074856202</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37084,13 +37084,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>480.9809856085427</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.44490262935137</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391037</v>
+        <v>68.16953634689308</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293973</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471585</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722394</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760626</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333628</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324921</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747758</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9576780068456</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37546,13 +37546,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>294.9678831462522</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37622,7 +37622,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>444.6753049152899</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
       </c>
       <c r="L40" t="n">
-        <v>393.9466430841754</v>
+        <v>393.9466430841758</v>
       </c>
       <c r="M40" t="n">
         <v>430.8117680092566</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>460.8086364284002</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37801,7 +37801,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>342.0648638204181</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>865.6962239252163</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>264.4903601664146</v>
       </c>
       <c r="L46" t="n">
-        <v>393.9466430841754</v>
+        <v>393.9466430841758</v>
       </c>
       <c r="M46" t="n">
         <v>430.8117680092566</v>
